--- a/images/IP-Planning-Hardware-Requirements.xlsx
+++ b/images/IP-Planning-Hardware-Requirements.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\tailieutrienkhai\Ceph_Storage\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ghichep-CEPH-1\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IP-Planning" sheetId="1" r:id="rId1"/>
     <sheet name="Draft" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Jewel" sheetId="7" r:id="rId4"/>
+    <sheet name="mitaka_jewel" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="113">
   <si>
     <t>Controller</t>
   </si>
@@ -357,6 +358,30 @@
   <si>
     <t>DISK4
 (GB)</t>
+  </si>
+  <si>
+    <t>compute</t>
+  </si>
+  <si>
+    <t>172.16.69.50</t>
+  </si>
+  <si>
+    <t>10.10.20.50</t>
+  </si>
+  <si>
+    <t>10.10.10.50</t>
+  </si>
+  <si>
+    <t>172.16.69.51</t>
+  </si>
+  <si>
+    <t>10.10.20.51</t>
+  </si>
+  <si>
+    <t>10.10.10.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -913,6 +938,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,52 +993,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1021,6 +1001,51 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,16 +1346,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="3:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
@@ -1379,7 +1404,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -1405,7 +1430,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="49"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="22" t="s">
         <v>3</v>
       </c>
@@ -1429,7 +1454,7 @@
       </c>
     </row>
     <row r="9" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="50"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1478,7 @@
       </c>
     </row>
     <row r="10" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1479,7 +1504,7 @@
       </c>
     </row>
     <row r="11" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="47"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="22" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1528,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="47"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="24" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1600,7 @@
       </c>
     </row>
     <row r="15" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -1601,7 +1626,7 @@
       </c>
     </row>
     <row r="16" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="52"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="23" t="s">
         <v>29</v>
       </c>
@@ -1625,7 +1650,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="25" t="s">
         <v>31</v>
       </c>
@@ -1727,14 +1752,14 @@
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
@@ -1797,14 +1822,14 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
@@ -1867,14 +1892,14 @@
       </c>
     </row>
     <row r="14" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="3:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
@@ -1957,12 +1982,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
@@ -1978,25 +2003,25 @@
       <c r="F4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="64" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2014,13 +2039,13 @@
       <c r="F5" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B6" s="37"/>
@@ -2036,13 +2061,13 @@
       <c r="F6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
     </row>
     <row r="7" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="37"/>
@@ -2054,13 +2079,13 @@
         <v>52</v>
       </c>
       <c r="F7" s="34"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="9" spans="2:13" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C9" s="33"/>
@@ -2294,8 +2319,8 @@
   </sheetPr>
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2312,23 +2337,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" s="30" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
     </row>
     <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
@@ -2372,7 +2397,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="33" t="s">
@@ -2390,30 +2415,30 @@
       <c r="G4" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="65">
-        <v>2</v>
-      </c>
-      <c r="I4" s="65">
-        <v>2</v>
-      </c>
-      <c r="J4" s="78">
+      <c r="H4" s="81">
+        <v>2</v>
+      </c>
+      <c r="I4" s="81">
+        <v>2</v>
+      </c>
+      <c r="J4" s="72">
         <v>40</v>
       </c>
-      <c r="K4" s="78">
+      <c r="K4" s="72">
         <v>20</v>
       </c>
-      <c r="L4" s="78">
+      <c r="L4" s="72">
         <v>30</v>
       </c>
-      <c r="M4" s="78">
+      <c r="M4" s="72">
         <v>30</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="66" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="68"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="46" t="s">
         <v>5</v>
       </c>
@@ -2425,37 +2450,37 @@
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="67"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="69"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="83"/>
+      <c r="E6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="68"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="78" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="33" t="s">
@@ -2473,30 +2498,30 @@
       <c r="G7" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="65">
-        <v>2</v>
-      </c>
-      <c r="I7" s="65">
-        <v>2</v>
-      </c>
-      <c r="J7" s="78">
+      <c r="H7" s="81">
+        <v>2</v>
+      </c>
+      <c r="I7" s="81">
+        <v>2</v>
+      </c>
+      <c r="J7" s="72">
         <v>40</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="72">
         <v>20</v>
       </c>
-      <c r="L7" s="78">
+      <c r="L7" s="72">
         <v>30</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="72">
         <v>30</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="66" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="68"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="33" t="s">
         <v>5</v>
       </c>
@@ -2508,37 +2533,37 @@
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="67"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="69"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="83"/>
+      <c r="E9" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="68"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="78" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="33" t="s">
@@ -2556,30 +2581,30 @@
       <c r="G10" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="65">
-        <v>2</v>
-      </c>
-      <c r="I10" s="65">
-        <v>2</v>
-      </c>
-      <c r="J10" s="78">
+      <c r="H10" s="81">
+        <v>2</v>
+      </c>
+      <c r="I10" s="81">
+        <v>2</v>
+      </c>
+      <c r="J10" s="72">
         <v>40</v>
       </c>
-      <c r="K10" s="78">
+      <c r="K10" s="72">
         <v>20</v>
       </c>
-      <c r="L10" s="78">
+      <c r="L10" s="72">
         <v>30</v>
       </c>
-      <c r="M10" s="78">
+      <c r="M10" s="72">
         <v>30</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="66" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="68"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="33" t="s">
         <v>5</v>
       </c>
@@ -2591,37 +2616,50 @@
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="67"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="83"/>
+      <c r="E12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
     <mergeCell ref="N4:N6"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="N10:N12"/>
@@ -2632,24 +2670,565 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="M7:M9"/>
     <mergeCell ref="M10:M12"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
     <mergeCell ref="K4:K6"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="K10:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="15.7109375" style="40" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="9" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="40" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="40" customWidth="1"/>
+    <col min="11" max="13" width="21.140625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" style="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" s="30" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="71"/>
+    </row>
+    <row r="3" spans="2:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="81">
+        <v>2</v>
+      </c>
+      <c r="I4" s="81">
+        <v>2</v>
+      </c>
+      <c r="J4" s="72">
+        <v>40</v>
+      </c>
+      <c r="K4" s="72">
+        <v>20</v>
+      </c>
+      <c r="L4" s="72">
+        <v>30</v>
+      </c>
+      <c r="M4" s="72">
+        <v>30</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="79"/>
+      <c r="C5" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="67"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="80"/>
+      <c r="C6" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="68"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="81">
+        <v>2</v>
+      </c>
+      <c r="I7" s="81">
+        <v>2</v>
+      </c>
+      <c r="J7" s="72">
+        <v>40</v>
+      </c>
+      <c r="K7" s="72">
+        <v>20</v>
+      </c>
+      <c r="L7" s="72">
+        <v>30</v>
+      </c>
+      <c r="M7" s="72">
+        <v>30</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="79"/>
+      <c r="C8" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="67"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="80"/>
+      <c r="C9" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="68"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="81">
+        <v>2</v>
+      </c>
+      <c r="I10" s="81">
+        <v>2</v>
+      </c>
+      <c r="J10" s="72">
+        <v>40</v>
+      </c>
+      <c r="K10" s="72">
+        <v>20</v>
+      </c>
+      <c r="L10" s="72">
+        <v>30</v>
+      </c>
+      <c r="M10" s="72">
+        <v>30</v>
+      </c>
+      <c r="N10" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="79"/>
+      <c r="C11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="67"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="80"/>
+      <c r="C12" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="68"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="81">
+        <v>4</v>
+      </c>
+      <c r="I13" s="81">
+        <v>2</v>
+      </c>
+      <c r="J13" s="72">
+        <v>40</v>
+      </c>
+      <c r="K13" s="72">
+        <v>0</v>
+      </c>
+      <c r="L13" s="72">
+        <v>0</v>
+      </c>
+      <c r="M13" s="72">
+        <v>0</v>
+      </c>
+      <c r="N13" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="79"/>
+      <c r="C14" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="67"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="80"/>
+      <c r="C15" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="68"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="81">
+        <v>8</v>
+      </c>
+      <c r="I16" s="81">
+        <v>4</v>
+      </c>
+      <c r="J16" s="72">
+        <v>40</v>
+      </c>
+      <c r="K16" s="72">
+        <v>0</v>
+      </c>
+      <c r="L16" s="72">
+        <v>0</v>
+      </c>
+      <c r="M16" s="72">
+        <v>0</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="79"/>
+      <c r="C17" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="67"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="80"/>
+      <c r="C18" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="68"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>